--- a/54班チーム制作仕様.xlsx
+++ b/54班チーム制作仕様.xlsx
@@ -5,14 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daiki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daiki\Desktop\チーム制作フォルダ\2019初期\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="7176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="7176" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Title" sheetId="2" r:id="rId2"/>
+    <sheet name="StageSelect" sheetId="3" r:id="rId3"/>
+    <sheet name="GamePlay" sheetId="4" r:id="rId4"/>
+    <sheet name="Ending" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>左右移動</t>
     <rPh sb="0" eb="2">
@@ -296,13 +300,727 @@
   <si>
     <t>エネミー</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原っぱ</t>
+    <rPh sb="0" eb="1">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田んぼ</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用水路</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウスイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下水道</t>
+    <rPh sb="0" eb="3">
+      <t>ゲスイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洞窟</t>
+    <rPh sb="0" eb="2">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海（クリア）</t>
+    <rPh sb="0" eb="1">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガキに投げられる</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時アニメ</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向いてる方向に白いのを出す</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たったら死ぬ</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常ネズミ</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横移動</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カエル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚エネミー</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスエネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コウモリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近づいたら追いかけてくる</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと長め（１０）</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短め（５）</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生きてるか死んでるか判別して生きてたら攻撃、死んでたら水分回収。死体は消える。</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスネズミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進攻撃→壁にぶつかったら一定時間スタン状態</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプで移動。近づいたら追いかけてくる。</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明/概要</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２段階式。壁を移動して追いかけてくる。脚をたたきつけて攻撃してくる。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージにある棘に、脚たたきつけ攻撃を当てるとスタン状態に。</t>
+  </si>
+  <si>
+    <t>タコ（２段階目）</t>
+    <rPh sb="4" eb="6">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコ（１段階目）</t>
+    <rPh sb="4" eb="6">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタン状態で足を２回攻撃すると足が１本とれる。２本とれると２段階目へ。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２段階目開始時にステージの床を破壊して別のステージへ。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今までの移動にプラスしてジャンプをするように。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある程度近づいたら、一番近いプレイヤーに対して直線軌道で飛ぶ墨で、遠距離攻撃</t>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョクセン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壺は攻撃することでひびを入れることができ、ひびが入っている壺にタコが入っているときに攻撃可能。</t>
+    <rPh sb="0" eb="1">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壺に入っているときに攻撃を３回繰り返すと撃破。</t>
+    <rPh sb="0" eb="1">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコがある程度攻撃するとステージにある壺（５こ）に疲れて入る。ひびのない壺にはいっているときは攻撃できない</t>
+    <rPh sb="5" eb="7">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ａ／Ｄキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右に移動</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spaceキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体の一部発射</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分身</t>
+    <rPh sb="0" eb="2">
+      <t>ブンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分身に攻撃することで使った水分の多くを回収可能。（分身は消える）</t>
+    <rPh sb="25" eb="27">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刺さった部位に分身生成。水分ゲージを消費。</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作しているキャラクターが死んだ際は、残っている分身に操作が勝手に切り替わる。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り替えて操作することが可能。（本体と同じことができる）</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水分ゲージ</t>
+    <rPh sb="0" eb="2">
+      <t>スイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間がたつにつれて徐々に減少。０になったらゲームオーバー。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターが現在向いている方向の近距離に白いものを出す。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +1045,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +1071,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -396,13 +1131,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +1192,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,12 +1555,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A7" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.8984375" customWidth="1"/>
     <col min="4" max="4" width="59.3984375" bestFit="1" customWidth="1"/>
@@ -802,7 +1594,7 @@
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -818,7 +1610,7 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -885,6 +1677,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -895,7 +1690,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -906,7 +1704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -917,13 +1715,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="21" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -934,8 +1743,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="27" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
@@ -946,4 +1755,409 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="146.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="17"/>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="17"/>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="17"/>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="17"/>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="17"/>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="17"/>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="17"/>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/54班チーム制作仕様.xlsx
+++ b/54班チーム制作仕様.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daiki\Desktop\チーム制作フォルダ\2019初期\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daiki\Downloads\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="115">
   <si>
     <t>左右移動</t>
     <rPh sb="0" eb="2">
@@ -533,40 +533,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生きてるか死んでるか判別して生きてたら攻撃、死んでたら水分回収。死体は消える。</t>
-    <rPh sb="0" eb="1">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンベツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>スイブン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボスネズミ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -908,16 +874,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分身に攻撃することで使った水分の多くを回収可能。（分身は消える）</t>
-    <rPh sb="25" eb="27">
-      <t>ブンシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>刺さった部位に分身生成。水分ゲージを消費。</t>
     <rPh sb="0" eb="1">
       <t>サ</t>
@@ -1014,6 +970,149 @@
   </si>
   <si>
     <t>キャラクターが現在向いている方向の近距離に白いものを出す。</t>
+  </si>
+  <si>
+    <t>ネズミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カエル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分身に攻撃することで使った水分をすこし回収可能。（分身は消える）</t>
+    <rPh sb="25" eb="27">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象が生きてるか死んでるか判別して生きてたら攻撃、死んでたら水分回収。死体は消える。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間アニメ</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥に連れ去られる</t>
+    <rPh sb="0" eb="1">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ステージ共通</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水場</t>
+    <rPh sb="0" eb="2">
+      <t>ミズバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブポイント兼水分補給ポイント。</t>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界観</t>
+    <rPh sb="0" eb="2">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1071,7 +1170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1098,11 +1197,24 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1115,17 +1227,39 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1135,27 +1269,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1166,7 +1291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,28 +1307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1218,8 +1322,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1568,14 +1702,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1583,7 +1717,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1591,7 +1725,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1599,7 +1733,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1607,7 +1741,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1615,25 +1749,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1644,8 +1778,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1747,6 +1881,21 @@
     <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1772,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1785,104 +1934,145 @@
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>44</v>
       </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1893,15 +2083,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="146.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
@@ -1909,89 +2099,89 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="19" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
@@ -1999,7 +2189,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B13" t="s">
@@ -2007,7 +2197,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B14" t="s">
@@ -2018,7 +2208,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -2033,11 +2223,11 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B18" t="s">
@@ -2048,96 +2238,135 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="19"/>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="19"/>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
-      <c r="C24" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="19"/>
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="17"/>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="17"/>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="19"/>
+      <c r="C27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="17"/>
-      <c r="C27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="19"/>
+      <c r="C28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="17"/>
-      <c r="C28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="19"/>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="19"/>
+      <c r="C30" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="17"/>
-      <c r="C30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/54班チーム制作仕様.xlsx
+++ b/54班チーム制作仕様.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
   <si>
     <t>左右移動</t>
     <rPh sb="0" eb="2">
@@ -437,6 +437,745 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常ネズミ</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カエル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚エネミー</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスエネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コウモリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近づいたら追いかけてくる</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと長め（１０）</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短め（５）</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスネズミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進攻撃→壁にぶつかったら一定時間スタン状態</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプで移動。近づいたら追いかけてくる。</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明/概要</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２段階式。壁を移動して追いかけてくる。脚をたたきつけて攻撃してくる。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージにある棘に、脚たたきつけ攻撃を当てるとスタン状態に。</t>
+  </si>
+  <si>
+    <t>タコ（２段階目）</t>
+    <rPh sb="4" eb="6">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコ（１段階目）</t>
+    <rPh sb="4" eb="6">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタン状態で足を２回攻撃すると足が１本とれる。２本とれると２段階目へ。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２段階目開始時にステージの床を破壊して別のステージへ。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今までの移動にプラスしてジャンプをするように。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある程度近づいたら、一番近いプレイヤーに対して直線軌道で飛ぶ墨で、遠距離攻撃</t>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョクセン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壺は攻撃することでひびを入れることができ、ひびが入っている壺にタコが入っているときに攻撃可能。</t>
+    <rPh sb="0" eb="1">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壺に入っているときに攻撃を３回繰り返すと撃破。</t>
+    <rPh sb="0" eb="1">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコがある程度攻撃するとステージにある壺（５こ）に疲れて入る。ひびのない壺にはいっているときは攻撃できない</t>
+    <rPh sb="5" eb="7">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ａ／Ｄキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右に移動</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spaceキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体の一部発射</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分身</t>
+    <rPh sb="0" eb="2">
+      <t>ブンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刺さった部位に分身生成。水分ゲージを消費。</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作しているキャラクターが死んだ際は、残っている分身に操作が勝手に切り替わる。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り替えて操作することが可能。（本体と同じことができる）</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水分ゲージ</t>
+    <rPh sb="0" eb="2">
+      <t>スイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間がたつにつれて徐々に減少。０になったらゲームオーバー。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターが現在向いている方向の近距離に白いものを出す。</t>
+  </si>
+  <si>
+    <t>ネズミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カエル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分身に攻撃することで使った水分をすこし回収可能。（分身は消える）</t>
+    <rPh sb="25" eb="27">
+      <t>ブンシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象が生きてるか死んでるか判別して生きてたら攻撃、死んでたら水分回収。死体は消える。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間アニメ</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥に連れ去られる</t>
+    <rPh sb="0" eb="1">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ステージ共通</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水場</t>
+    <rPh sb="0" eb="2">
+      <t>ミズバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブポイント兼水分補給ポイント。</t>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界観</t>
+    <rPh sb="0" eb="2">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水分ゲージ</t>
+    <rPh sb="0" eb="2">
+      <t>スイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作キャラ選択</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作するヒトデを選択できる画面になる。時間は止まる</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｓキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択画面ではＡ／Ｄキーで選んでＳキーで決定とする。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横移動（壁に当たったり、落ちそうになったら移動反転）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>当たったら死ぬ</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
@@ -447,18 +1186,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常ネズミ</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>横移動</t>
+    <t>横移動（壁に当たったり、落ちそうになったら移動反転）</t>
     <rPh sb="0" eb="1">
       <t>ヨコ</t>
     </rPh>
@@ -468,650 +1196,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カニ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カエル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑魚エネミー</t>
-    <rPh sb="0" eb="2">
-      <t>ザコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボスエネミー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コウモリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近づいたら追いかけてくる</t>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ちょっと長め（１０）</t>
-    <rPh sb="4" eb="5">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>短め（５）</t>
-    <rPh sb="0" eb="1">
-      <t>ミジカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ数</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボスネズミ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>突進攻撃→壁にぶつかったら一定時間スタン状態</t>
-    <rPh sb="0" eb="2">
-      <t>トッシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプで移動。近づいたら追いかけてくる。</t>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明/概要</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２段階式。壁を移動して追いかけてくる。脚をたたきつけて攻撃してくる。</t>
-    <rPh sb="1" eb="3">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージにある棘に、脚たたきつけ攻撃を当てるとスタン状態に。</t>
-  </si>
-  <si>
-    <t>タコ（２段階目）</t>
-    <rPh sb="4" eb="6">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タコ（１段階目）</t>
-    <rPh sb="4" eb="6">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタン状態で足を２回攻撃すると足が１本とれる。２本とれると２段階目へ。</t>
+    <t>スタン状態</t>
     <rPh sb="3" eb="5">
       <t>ジョウタイ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２段階目開始時にステージの床を破壊して別のステージへ。</t>
-    <rPh sb="1" eb="3">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今までの移動にプラスしてジャンプをするように。</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ある程度近づいたら、一番近いプレイヤーに対して直線軌道で飛ぶ墨で、遠距離攻撃</t>
-    <rPh sb="2" eb="4">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>チョクセン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>エンキョリ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壺は攻撃することでひびを入れることができ、ひびが入っている壺にタコが入っているときに攻撃可能。</t>
-    <rPh sb="0" eb="1">
-      <t>ツボ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツボ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壺に入っているときに攻撃を３回繰り返すと撃破。</t>
-    <rPh sb="0" eb="1">
-      <t>ツボ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タコがある程度攻撃するとステージにある壺（５こ）に疲れて入る。ひびのない壺にはいっているときは攻撃できない</t>
-    <rPh sb="5" eb="7">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツボ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ツボ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ａ／Ｄキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左右に移動</t>
-    <rPh sb="0" eb="2">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右クリック</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Spaceキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左クリック</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体の一部発射</t>
-    <rPh sb="0" eb="1">
-      <t>カラダ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分身</t>
-    <rPh sb="0" eb="2">
-      <t>ブンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>刺さった部位に分身生成。水分ゲージを消費。</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブンシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>スイブン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作しているキャラクターが死んだ際は、残っている分身に操作が勝手に切り替わる。</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ブンシン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カッテ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>切り替えて操作することが可能。（本体と同じことができる）</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホンタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水分ゲージ</t>
-    <rPh sb="0" eb="2">
-      <t>スイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間がたつにつれて徐々に減少。０になったらゲームオーバー。</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラクターが現在向いている方向の近距離に白いものを出す。</t>
-  </si>
-  <si>
-    <t>ネズミ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カエル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カニ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分身に攻撃することで使った水分をすこし回収可能。（分身は消える）</t>
-    <rPh sb="25" eb="27">
-      <t>ブンシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ４</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象が生きてるか死んでるか判別して生きてたら攻撃、死んでたら水分回収。死体は消える。</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンベツ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>スイブン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中間アニメ</t>
-    <rPh sb="0" eb="2">
-      <t>チュウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鳥に連れ去られる</t>
-    <rPh sb="0" eb="1">
-      <t>トリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全ステージ共通</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水場</t>
-    <rPh sb="0" eb="2">
-      <t>ミズバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セーブポイント兼水分補給ポイント。</t>
-    <rPh sb="7" eb="8">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>スイブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>世界観</t>
-    <rPh sb="0" eb="2">
-      <t>セカイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エンディング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1885,17 +1973,17 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +2024,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1945,7 +2033,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
@@ -1969,7 +2057,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="15"/>
@@ -1991,7 +2079,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
@@ -2013,17 +2101,17 @@
         <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2037,7 +2125,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="15"/>
@@ -2051,7 +2139,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -2083,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2099,7 +2187,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2109,264 +2197,286 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>60</v>
+      <c r="A12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="C24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="19"/>
+      <c r="C31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="19"/>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="19" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
         <v>109</v>
       </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="19"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
-        <v>102</v>
-      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="19"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>112</v>
+      <c r="A43" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/54班チーム制作仕様.xlsx
+++ b/54班チーム制作仕様.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
   <si>
     <t>左右移動</t>
     <rPh sb="0" eb="2">
@@ -562,31 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２段階式。壁を移動して追いかけてくる。脚をたたきつけて攻撃してくる。</t>
-    <rPh sb="1" eb="3">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージにある棘に、脚たたきつけ攻撃を当てるとスタン状態に。</t>
   </si>
   <si>
@@ -1196,9 +1171,200 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタン状態</t>
+    <t>スタン状態では攻撃が通る。</t>
     <rPh sb="3" eb="5">
       <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２段階式。壁を伝って移動して追いかけてくる。脚をたたきつけて攻撃してくる。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひびが入っている壺に入っているときに攻撃をすると出てくる。</t>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即死ブロック</t>
+    <rPh sb="0" eb="2">
+      <t>ソクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たったら死ぬブロック。デザインはステージによって違う。</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーソー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の板と石でできた天然のシーソー。プレイヤーが乗っているほうに傾く。両方にプレイヤーが乗っている場合は後から乗ってきたほうに傾く</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンネン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オナモミ砲</t>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定時間ごとに一番近いプレイヤーに弾を飛ばす。弾に当たると死ぬ。弾は壁や床で防げる。弾を飛ばす本体に当たると死ぬが敵ではないので攻撃で倒す事はできない。</t>
+    <rPh sb="0" eb="4">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1973,17 +2139,17 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2011,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2024,7 +2190,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2108,10 +2274,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2139,7 +2305,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -2171,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2197,91 +2363,91 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
       </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
         <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -2289,7 +2455,7 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -2308,7 +2474,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -2319,7 +2485,7 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -2338,7 +2504,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -2368,7 +2534,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -2376,107 +2542,137 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="19"/>
       <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="19"/>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="19" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="19"/>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="19"/>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="19"/>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="19"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" t="s">
-        <v>113</v>
+      <c r="B48" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
